--- a/data/trans_orig/Predimed-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Provincia-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.07171010968608</v>
+        <v>7.078607502563163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.944467969056812</v>
+        <v>6.952519005399831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.063428439145678</v>
+        <v>7.056739657194941</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.370250492719618</v>
+        <v>7.361013724758616</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.230304300426687</v>
+        <v>7.234673637230066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.265747825304951</v>
+        <v>7.263649212916947</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>5.746826269644127</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5.62888224264325</v>
+        <v>5.628882242643251</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.276680530033306</v>
+        <v>5.26051792328597</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.57443966340943</v>
+        <v>5.583195465329849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.49376432774149</v>
+        <v>5.490307482370158</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.747605981746267</v>
+        <v>5.723214596255278</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.91065730132967</v>
+        <v>5.916222590742557</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.789353928424474</v>
+        <v>5.769154882170064</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>7.398380689644529</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.603872893116414</v>
+        <v>7.603872893116415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.507069581504806</v>
+        <v>7.507069581504804</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.182580416093172</v>
+        <v>7.187455880120551</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.447616324772987</v>
+        <v>7.446719762004573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.39166327840231</v>
+        <v>7.367455084848977</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.600531898064883</v>
+        <v>7.629401212638443</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.745013267452357</v>
+        <v>7.760782259477241</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.647638665588933</v>
+        <v>7.641707923286897</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.799813377286553</v>
+        <v>7.799813377286551</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.696888130589269</v>
+        <v>7.696888130589266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7.744194901399407</v>
+        <v>7.744194901399409</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.426892447969525</v>
+        <v>7.398295353945192</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.446372005515424</v>
+        <v>7.469198367384825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.546664989084113</v>
+        <v>7.532529499383711</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.138902339637585</v>
+        <v>8.167445526314037</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.931524440095695</v>
+        <v>7.930094468545564</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.962773690275672</v>
+        <v>7.97132333466188</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.534091120051009</v>
+        <v>6.527578136037038</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.108853561554581</v>
+        <v>7.126980421455316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.930490299805236</v>
+        <v>6.94162321936818</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.108097876682353</v>
+        <v>7.115310488098393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.611873288244778</v>
+        <v>7.606729105359429</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.309239254834226</v>
+        <v>7.325515003114053</v>
       </c>
     </row>
     <row r="19">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>6.82574929451946</v>
+        <v>6.825749294519462</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>6.497663441564964</v>
+        <v>6.497663441564965</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>6.6638602647737</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.641850624754814</v>
+        <v>6.662678641472159</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.358612816843725</v>
+        <v>6.362976578945487</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.558666936862611</v>
+        <v>6.54815519529456</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.99095040507217</v>
+        <v>6.991140433370328</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.61964765415568</v>
+        <v>6.635701172715788</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.770873783273471</v>
+        <v>6.781666370960342</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.087797963211273</v>
+        <v>7.095521045245183</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.109134421273675</v>
+        <v>7.091872523814983</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.155021084830047</v>
+        <v>7.157586394938134</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.48597114246754</v>
+        <v>7.484048098216944</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.422299717823978</v>
+        <v>7.402153716372329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.410083456375897</v>
+        <v>7.396191140330033</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>4.539948907063321</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>4.525617649024024</v>
+        <v>4.525617649024025</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4.532619148524581</v>
+        <v>4.53261914852458</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.390673462306296</v>
+        <v>4.385471848108031</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.386705641453807</v>
+        <v>4.392231263970118</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.433635335612431</v>
+        <v>4.439730703103807</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.696418750989888</v>
+        <v>4.705541895035207</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.667053142102523</v>
+        <v>4.668510258443669</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.651992177666854</v>
+        <v>4.645917451458197</v>
       </c>
     </row>
     <row r="28">
@@ -1006,7 +1006,7 @@
         <v>6.422786031055798</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.396894172096228</v>
+        <v>6.396894172096229</v>
       </c>
     </row>
     <row r="29">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.278462830819583</v>
+        <v>6.272761690076704</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.34974816450548</v>
+        <v>6.355140244838434</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.337867073313646</v>
+        <v>6.337563815624526</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.467716736445988</v>
+        <v>6.459982137239424</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.491721878775881</v>
+        <v>6.493937532203584</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.458002250585348</v>
+        <v>6.456577537939424</v>
       </c>
     </row>
     <row r="31">
